--- a/matlab/logDataProcess/sri-ipb1-45.xlsx
+++ b/matlab/logDataProcess/sri-ipb1-45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>reactor</t>
   </si>
@@ -110,6 +110,21 @@
   </si>
   <si>
     <t>10us-30v</t>
+  </si>
+  <si>
+    <t>10us-30v-temp_day-05.csv</t>
+  </si>
+  <si>
+    <t>081017</t>
+  </si>
+  <si>
+    <t>Ar_D2_He_day-00.csv</t>
+  </si>
+  <si>
+    <t>10us-80ns-d2</t>
+  </si>
+  <si>
+    <t>081217</t>
   </si>
 </sst>
 </file>
@@ -960,7 +975,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1238,10 +1253,104 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2">
+        <v>8</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O6" s="2">
+        <v>189</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O7" s="2">
+        <v>189</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
